--- a/results/STA357_scores/STA357_scores_with_grades.xlsx
+++ b/results/STA357_scores/STA357_scores_with_grades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -35,367 +35,391 @@
     <t xml:space="preserve">s_n</t>
   </si>
   <si>
-    <t xml:space="preserve">ADEJUWON PRECIOUS ADERONKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0061</t>
+    <t xml:space="preserve">grade_point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishaq Okonkwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olamide James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryam Hassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feyikemi Oladapo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinedu Obi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nkechi Chukwu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nkechi Adegoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deborah Yahaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deborah Faisal Fasasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0009</t>
   </si>
   <si>
     <t xml:space="preserve">C+</t>
   </si>
   <si>
-    <t xml:space="preserve">AKINDUNBI BOLUWATIFE OPEYEMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0062</t>
+    <t xml:space="preserve">Samuel Ebuka Ojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0010</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">AKINSANYA SAMUEL DAMILOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0063</t>
+    <t xml:space="preserve">Joseph Adeyemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinedu Musa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ifeanyi Ugochi Taiwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temitope Akande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chisom Alabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oluwaseun Adeniran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aisha Ireti Adeoye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofi Ibrahim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opeyemi Fawole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0019</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">ANGYAMAS ANTHONY ASHITONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWOBUSUYI JOSHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAMIDELE PRECIOUS MICHEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAGBUYIRO OLUWATOBILOBA I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILANI GBENGA PETER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0068</t>
+    <t xml:space="preserve">Ugochi Kofi Taiwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khadijah Ogundele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temitope Temilade Yusuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0022</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">IDOWU RUKAYAT AANUOLUWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KASALI OLAJIIRE DAVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHAEL HAPPINESS INEMESIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OJO AYOMIDIPUPO FELIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLATUNBOSUN IYANUOLUWA J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLULEYE ADEFEMI STEPHEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMOH SUNDAY SEGUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSASONA AYOMIDE VICTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OYEDIRAN NURUDEEN ABIODUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWOLUSI IDOWU BAMITALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLUWADUROTIMI OLAIDE JOHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEDIRAN FAVOUR AYOOLUWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEGBOYE OLUWAPELUMI A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADELUGBA JOEL OLUWASEYI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKINYEMIJU OLUWAPELUMI FAITH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHAEL AYOBAMI WISDOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLAJIDE GOODNESS TAIWO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMOTOSO OLAMIDE EMMANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIAMIYU MOJEED ADESINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEOSUN TOBILOBA MICHEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJALA JOSHUA OLUWAFERANMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJAYI OMOLOLA DOLAPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKINFEMI OLOLADE DEBORAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWODEYI HAPPINESS BUKOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALOGUN DAMILOLA JANET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLO TOYEEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAMIGBOYE MICHAEL AYOBAMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUDAH SAMUEL OGHENEOSHIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADENIRANYE TOLUWASE VICTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJELE IBITOLA TIMILEYIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUDA MALIK AYODEJI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLORUNYOMI BABATUNDE TAIWO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLAIYA ABDULSAMAD AYOMIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEWUMI TAIWO MARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OYEYEMI OPEYEMI FOLASHADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUNDAY OBINNA SEUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOLA-IGE TAOFEEK OLADAPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKINMOLAYAN JOHN AYOMIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDOWU DAMILOLA ISAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANYA OLOLADE TIMILEYIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALIMI SODIQ AYOMIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEWUMI DAVID OLUWASEUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADERIBIGBE FUNMILAYO TITILAYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEWUSI MICHEAL DAMILOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKEJU KEHINDE BOSEDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABIOYE OKIKIJESU JULIUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASAOLU SOLOMON AYOMIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPA/CS/24/3-0115</t>
+    <t xml:space="preserve">Olayinka Sulaimon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osarumwense Ireti Olorunfemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tola James Salisu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tola Hassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nnamdi Lawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temitope Umar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ifeanyi Fawole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olayinka Mofe Oladapo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opeyemi Sanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugochi Adegbite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opeyemi Ojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nnamdi Kofi Sanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mofe Idowu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uche Yahaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nnamdi Fasasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofi Yahaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishaq Olawale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelechi Mohammed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damilola Adegbite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taofeek Nkechi Olorunfemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebuka Akande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadiza Mohammed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeola Ugochi Oladimeji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osarumwense Emeka Ajayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugochi Mohammed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadiza Akande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamidele Okeke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emeka Alabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mofe Adeola Adeoye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kofi Odili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temilade Samuel Nwankwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chisom Oladimeji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feyikemi Mohammed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamidele Ogundele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temitope Musa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ifeanyi Adegoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR/20/4-0058</t>
   </si>
   <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
     <t xml:space="preserve">Percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">GradeAF</t>
@@ -551,15 +575,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F56" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F56"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H59" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H59"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Matric_No"/>
     <tableColumn id="3" name="Total_100"/>
     <tableColumn id="4" name="GradePoint"/>
     <tableColumn id="5" name="Grade"/>
     <tableColumn id="6" name="s_n"/>
+    <tableColumn id="7" name="grade_point"/>
+    <tableColumn id="8" name="grade_2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -874,12 +900,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="29.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="28.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="7.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -901,165 +929,219 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="G2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
+      <c r="G4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="n">
         <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
       </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1070,936 +1152,1296 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
       </c>
+      <c r="G10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
       </c>
+      <c r="G11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
       </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
       </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
       </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
       </c>
+      <c r="G19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="n">
         <v>49</v>
-      </c>
-      <c r="C20" t="n">
-        <v>46</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2.25</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
       </c>
+      <c r="G20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
       </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
       </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
       </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
+      <c r="G25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
       </c>
+      <c r="G26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C27" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
       </c>
+      <c r="G27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
       </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C29" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
       </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="n">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="n">
-        <v>57</v>
-      </c>
       <c r="D30" s="1" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
       </c>
+      <c r="G30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
       </c>
+      <c r="G31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
       </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C33" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
       </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
       </c>
+      <c r="G34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C35" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
       </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C36" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
       </c>
+      <c r="G36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C37" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
       </c>
+      <c r="G37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C38" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
         <v>37</v>
       </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
       </c>
+      <c r="G39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
       </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C41" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
       </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C42" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F42" t="n">
         <v>41</v>
       </c>
+      <c r="G42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
         <v>42</v>
       </c>
+      <c r="G43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C44" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
         <v>43</v>
       </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C45" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F45" t="n">
         <v>44</v>
       </c>
+      <c r="G45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C46" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F46" t="n">
         <v>45</v>
       </c>
+      <c r="G46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C47" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
         <v>46</v>
       </c>
+      <c r="G47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C48" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>2.75</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F48" t="n">
         <v>47</v>
       </c>
+      <c r="G48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C49" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F49" t="n">
         <v>48</v>
       </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C50" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>2.5</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
         <v>49</v>
       </c>
+      <c r="G50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C51" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
         <v>50</v>
       </c>
+      <c r="G51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F52" t="n">
         <v>51</v>
       </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C53" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
         <v>52</v>
       </c>
+      <c r="G53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C54" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
         <v>53</v>
       </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C55" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
         <v>54</v>
       </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C56" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
         <v>55</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="n">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>56</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="n">
+        <v>87</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="n">
+        <v>57</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="n">
+        <v>63</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="n">
+        <v>58</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2029,109 +2471,109 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.018</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.073</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.255</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.291</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.182</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.073</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.109</v>
+        <v>0.017</v>
       </c>
     </row>
   </sheetData>
@@ -2158,79 +2600,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.091</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.545</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.182</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.073</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.109</v>
+        <v>0.017</v>
       </c>
     </row>
   </sheetData>
